--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed4/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.920100000000004</v>
+        <v>-7.976700000000005</v>
       </c>
     </row>
     <row r="5">
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.08250000000001</v>
+        <v>-22.10050000000002</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.7079</v>
+        <v>-7.722899999999998</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.360799999999994</v>
+        <v>-7.938099999999995</v>
       </c>
     </row>
     <row r="12">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.142</v>
+        <v>-22.30910000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.12689999999997</v>
+        <v>-21.56789999999997</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.200899999999997</v>
+        <v>-8.0832</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.497900000000002</v>
+        <v>-7.418799999999997</v>
       </c>
     </row>
     <row r="25">
@@ -802,12 +802,12 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.752100000000001</v>
+        <v>-7.549400000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.04899999999999</v>
+        <v>-21.94879999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -914,12 +914,12 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.937600000000001</v>
+        <v>-7.761100000000002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.36089999999999</v>
+        <v>-19.64199999999999</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.798800000000004</v>
+        <v>-7.672500000000003</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.864199999999999</v>
+        <v>-7.741399999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.183600000000002</v>
+        <v>-7.971899999999998</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.753700000000001</v>
+        <v>-7.706200000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.238</v>
+        <v>-7.4034</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.156899999999999</v>
+        <v>-7.526199999999994</v>
       </c>
     </row>
     <row r="68">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.68049999999999</v>
+        <v>-21.62589999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.61399999999999</v>
+        <v>-19.6443</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.14789999999999</v>
+        <v>-19.09649999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.600000000000003</v>
+        <v>-7.758800000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.797000000000001</v>
+        <v>-8.073000000000002</v>
       </c>
     </row>
     <row r="81">
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.62659999999999</v>
+        <v>-21.67070000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.6261</v>
+        <v>-21.689</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.3763</v>
+        <v>-21.3755</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.111499999999996</v>
+        <v>-7.935099999999998</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.817000000000002</v>
+        <v>-7.737899999999996</v>
       </c>
     </row>
     <row r="105">
